--- a/ex_sheets/oo.xlsx
+++ b/ex_sheets/oo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0a02c4a7808a1f27/Desktop/newStuff/Danalysis/sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0a02c4a7808a1f27/Desktop/newStuff/Danalysis/ex_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_6AE012AA7DA232F54B2696D39561FC6B141F84AA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31B6E253-2229-4A58-B904-60B7C3C32AA6}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_6AE012AA7DA232F54B2696D39561FC6B141F84AA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{310E32D7-DB9D-46F9-8B38-8F09E4CFEF24}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12300,10 +12300,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12608,16 +12604,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C2212"/>
+    <sheetView tabSelected="1" topLeftCell="B467" workbookViewId="0">
+      <selection activeCell="D471" sqref="D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="7.05859375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="105.29296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.1171875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.29296875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="68.3515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10" style="3" customWidth="1"/>
+    <col min="4" max="4" width="59.234375" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.52734375" style="3" customWidth="1"/>
     <col min="6" max="6" width="64.76171875" style="3" customWidth="1"/>
     <col min="7" max="7" width="9.1171875" style="2" customWidth="1"/>

--- a/ex_sheets/oo.xlsx
+++ b/ex_sheets/oo.xlsx
@@ -12300,6 +12300,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12604,8 +12608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B467" workbookViewId="0">
-      <selection activeCell="D471" sqref="D471"/>
+    <sheetView tabSelected="1" topLeftCell="A2076" workbookViewId="0">
+      <selection activeCell="D2092" sqref="D2092"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
